--- a/public/data/lime/lime_table_democratic_republic_of_the_congo.xlsx
+++ b/public/data/lime/lime_table_democratic_republic_of_the_congo.xlsx
@@ -1975,16 +1975,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>1.76</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.51</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1993,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.23</v>
+        <v>0.63</v>
       </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2022,16 +2022,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.45</v>
+        <v>0.92</v>
       </c>
       <c r="K3" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2069,13 +2069,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>2.23</v>
       </c>
       <c r="E4" t="n">
-        <v>1.33</v>
+        <v>0.48</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.01</v>
+        <v>4.46</v>
       </c>
       <c r="K4" t="n">
-        <v>3.54</v>
+        <v>2.42</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2116,13 +2116,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="E5" t="n">
-        <v>0.66</v>
+        <v>0.14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="E6" t="n">
-        <v>0.84</v>
+        <v>0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="K6" t="n">
-        <v>1.45</v>
+        <v>0.72</v>
       </c>
       <c r="L6" t="n">
-        <v>0.48</v>
+        <v>0.07</v>
       </c>
       <c r="M6" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>1.79</v>
+        <v>1.13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>0.66</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2257,16 +2257,16 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="K8" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>1.53</v>
+        <v>0.94</v>
       </c>
       <c r="E9" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="K9" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="L9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6</v>
+        <v>0.07</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>2.99</v>
+        <v>2.53</v>
       </c>
       <c r="E11" t="n">
-        <v>1.68</v>
+        <v>0.76</v>
       </c>
       <c r="F11" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.92</v>
+        <v>3.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>1.26</v>
       </c>
       <c r="L11" t="n">
-        <v>0.91</v>
+        <v>0.18</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>3.25</v>
+        <v>2.19</v>
       </c>
       <c r="E12" t="n">
-        <v>2.17</v>
+        <v>0.29</v>
       </c>
       <c r="F12" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>3.75</v>
+        <v>2.53</v>
       </c>
       <c r="E13" t="n">
-        <v>2.55</v>
+        <v>0.28</v>
       </c>
       <c r="F13" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2539,19 +2539,19 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>3.92</v>
+        <v>2.93</v>
       </c>
       <c r="E14" t="n">
-        <v>3.15</v>
+        <v>1.19</v>
       </c>
       <c r="F14" t="n">
-        <v>2.27</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2586,13 +2586,13 @@
         <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="E15" t="n">
-        <v>2.51</v>
+        <v>0.19</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2604,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2633,34 +2633,34 @@
         <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>5.1</v>
+        <v>3.14</v>
       </c>
       <c r="E16" t="n">
-        <v>3.76</v>
+        <v>0.37</v>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.61</v>
+        <v>4.31</v>
       </c>
       <c r="K16" t="n">
-        <v>4.02</v>
+        <v>0.61</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2680,13 +2680,13 @@
         <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>4.05</v>
+        <v>3.16</v>
       </c>
       <c r="E17" t="n">
-        <v>3.37</v>
+        <v>1.48</v>
       </c>
       <c r="F17" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2727,37 +2727,37 @@
         <v>105</v>
       </c>
       <c r="D18" t="n">
-        <v>4.76</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>3.41</v>
+        <v>0.51</v>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>0.12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.54</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.06</v>
+        <v>0.01</v>
       </c>
       <c r="L18" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2774,31 +2774,31 @@
         <v>106</v>
       </c>
       <c r="D19" t="n">
-        <v>5.49</v>
+        <v>2.76</v>
       </c>
       <c r="E19" t="n">
-        <v>3.63</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.44</v>
+        <v>3.78</v>
       </c>
       <c r="K19" t="n">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>4.13</v>
+        <v>2.97</v>
       </c>
       <c r="E20" t="n">
-        <v>3.14</v>
+        <v>0.82</v>
       </c>
       <c r="F20" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.07</v>
+        <v>2.28</v>
       </c>
       <c r="K20" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>5.18</v>
+        <v>4.91</v>
       </c>
       <c r="E21" t="n">
-        <v>4.42</v>
+        <v>3.84</v>
       </c>
       <c r="F21" t="n">
-        <v>3.54</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.92</v>
+        <v>4.48</v>
       </c>
       <c r="K21" t="n">
-        <v>3.96</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.95</v>
+        <v>2.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2915,13 +2915,13 @@
         <v>110</v>
       </c>
       <c r="D22" t="n">
-        <v>4.53</v>
+        <v>4.27</v>
       </c>
       <c r="E22" t="n">
-        <v>3.95</v>
+        <v>3.39</v>
       </c>
       <c r="F22" t="n">
-        <v>3.29</v>
+        <v>2.39</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2933,19 +2933,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.23</v>
       </c>
       <c r="K22" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="L22" t="n">
-        <v>1.78</v>
+        <v>0.77</v>
       </c>
       <c r="M22" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>111</v>
       </c>
       <c r="D23" t="n">
-        <v>3.99</v>
+        <v>3.73</v>
       </c>
       <c r="E23" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
       <c r="F23" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2980,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.45</v>
       </c>
       <c r="K23" t="n">
-        <v>1.93</v>
+        <v>1.19</v>
       </c>
       <c r="L23" t="n">
-        <v>1.03</v>
+        <v>0.49</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3027,16 +3027,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="K24" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>0.26</v>
+        <v>0.07</v>
       </c>
       <c r="M24" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>113</v>
       </c>
       <c r="D25" t="n">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="E25" t="n">
-        <v>1.19</v>
+        <v>0.54</v>
       </c>
       <c r="F25" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="K25" t="n">
-        <v>0.58</v>
+        <v>0.21</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>114</v>
       </c>
       <c r="D26" t="n">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="E26" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3121,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="K26" t="n">
-        <v>1.03</v>
+        <v>0.55</v>
       </c>
       <c r="L26" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="M26" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
         <v>115</v>
       </c>
       <c r="D27" t="n">
-        <v>5.55</v>
+        <v>5.2</v>
       </c>
       <c r="E27" t="n">
-        <v>4.71</v>
+        <v>3.96</v>
       </c>
       <c r="F27" t="n">
-        <v>3.74</v>
+        <v>2.55</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3168,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.08</v>
+        <v>3.13</v>
       </c>
       <c r="K27" t="n">
-        <v>2.61</v>
+        <v>1.58</v>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>0.76</v>
       </c>
       <c r="M27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3197,16 +3197,16 @@
         <v>116</v>
       </c>
       <c r="D28" t="n">
-        <v>4.64</v>
+        <v>4.27</v>
       </c>
       <c r="E28" t="n">
-        <v>3.73</v>
+        <v>2.95</v>
       </c>
       <c r="F28" t="n">
-        <v>2.67</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3215,19 +3215,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.83</v>
+        <v>3.18</v>
       </c>
       <c r="K28" t="n">
-        <v>2.73</v>
+        <v>1.73</v>
       </c>
       <c r="L28" t="n">
-        <v>1.61</v>
+        <v>0.66</v>
       </c>
       <c r="M28" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>4.24</v>
+        <v>3.94</v>
       </c>
       <c r="E29" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="F29" t="n">
-        <v>2.71</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3262,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>1.63</v>
       </c>
       <c r="K29" t="n">
-        <v>1.26</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3291,37 +3291,37 @@
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>5.47</v>
+        <v>4.98</v>
       </c>
       <c r="E30" t="n">
-        <v>4.32</v>
+        <v>3.33</v>
       </c>
       <c r="F30" t="n">
-        <v>2.99</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.56</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>2.95</v>
+        <v>1.39</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="M30" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3338,13 +3338,13 @@
         <v>120</v>
       </c>
       <c r="D31" t="n">
-        <v>5.13</v>
+        <v>4.76</v>
       </c>
       <c r="E31" t="n">
-        <v>4.09</v>
+        <v>3.31</v>
       </c>
       <c r="F31" t="n">
-        <v>2.89</v>
+        <v>1.7</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.49</v>
+        <v>4.82</v>
       </c>
       <c r="K31" t="n">
-        <v>4.19</v>
+        <v>2.83</v>
       </c>
       <c r="L31" t="n">
-        <v>2.71</v>
+        <v>0.9</v>
       </c>
       <c r="M31" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>121</v>
       </c>
       <c r="D32" t="n">
-        <v>6.43</v>
+        <v>6.12</v>
       </c>
       <c r="E32" t="n">
-        <v>5.6</v>
+        <v>4.95</v>
       </c>
       <c r="F32" t="n">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.48</v>
+        <v>5.99</v>
       </c>
       <c r="K32" t="n">
-        <v>5.28</v>
+        <v>4.23</v>
       </c>
       <c r="L32" t="n">
-        <v>3.89</v>
+        <v>2.34</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>122</v>
       </c>
       <c r="D33" t="n">
-        <v>4.37</v>
+        <v>4.08</v>
       </c>
       <c r="E33" t="n">
-        <v>3.61</v>
+        <v>2.99</v>
       </c>
       <c r="F33" t="n">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3450,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="K33" t="n">
-        <v>1.56</v>
+        <v>0.75</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3479,13 +3479,13 @@
         <v>123</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>5.76</v>
       </c>
       <c r="E34" t="n">
-        <v>5.21</v>
+        <v>4.71</v>
       </c>
       <c r="F34" t="n">
-        <v>4.29</v>
+        <v>3.48</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="K34" t="n">
-        <v>4.49</v>
+        <v>3.86</v>
       </c>
       <c r="L34" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3526,37 +3526,37 @@
         <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>4.92</v>
+        <v>4.51</v>
       </c>
       <c r="E35" t="n">
-        <v>3.94</v>
+        <v>3.08</v>
       </c>
       <c r="F35" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.43</v>
+        <v>3.31</v>
       </c>
       <c r="K35" t="n">
-        <v>3.01</v>
+        <v>1.39</v>
       </c>
       <c r="L35" t="n">
-        <v>1.6</v>
+        <v>0.12</v>
       </c>
       <c r="M35" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3573,13 +3573,13 @@
         <v>126</v>
       </c>
       <c r="D36" t="n">
-        <v>12.8</v>
+        <v>12.39</v>
       </c>
       <c r="E36" t="n">
-        <v>11.42</v>
+        <v>10.53</v>
       </c>
       <c r="F36" t="n">
-        <v>9.8</v>
+        <v>8.35</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.55</v>
+        <v>11.13</v>
       </c>
       <c r="K36" t="n">
-        <v>10.09</v>
+        <v>9.19</v>
       </c>
       <c r="L36" t="n">
-        <v>8.4</v>
+        <v>6.93</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3620,13 +3620,13 @@
         <v>127</v>
       </c>
       <c r="D37" t="n">
-        <v>4.17</v>
+        <v>3.71</v>
       </c>
       <c r="E37" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="F37" t="n">
-        <v>1.53</v>
+        <v>0.56</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.72</v>
+        <v>6.22</v>
       </c>
       <c r="K37" t="n">
-        <v>5.32</v>
+        <v>4.27</v>
       </c>
       <c r="L37" t="n">
-        <v>3.74</v>
+        <v>2.25</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>128</v>
       </c>
       <c r="D38" t="n">
-        <v>5.29</v>
+        <v>4.81</v>
       </c>
       <c r="E38" t="n">
-        <v>4.06</v>
+        <v>3.09</v>
       </c>
       <c r="F38" t="n">
-        <v>2.79</v>
+        <v>1.41</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.83</v>
+        <v>3.32</v>
       </c>
       <c r="K38" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="L38" t="n">
-        <v>1.64</v>
+        <v>0.88</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>129</v>
       </c>
       <c r="D39" t="n">
-        <v>5.84</v>
+        <v>5.32</v>
       </c>
       <c r="E39" t="n">
-        <v>4.57</v>
+        <v>3.59</v>
       </c>
       <c r="F39" t="n">
-        <v>3.23</v>
+        <v>1.96</v>
       </c>
       <c r="G39" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3732,16 +3732,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.62</v>
+        <v>6.06</v>
       </c>
       <c r="K39" t="n">
-        <v>5.18</v>
+        <v>4.12</v>
       </c>
       <c r="L39" t="n">
-        <v>3.69</v>
+        <v>2.35</v>
       </c>
       <c r="M39" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3761,13 +3761,13 @@
         <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>3.75</v>
+        <v>3.36</v>
       </c>
       <c r="E40" t="n">
-        <v>2.87</v>
+        <v>2.03</v>
       </c>
       <c r="F40" t="n">
-        <v>1.85</v>
+        <v>0.64</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3779,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.98</v>
+        <v>5.55</v>
       </c>
       <c r="K40" t="n">
-        <v>4.91</v>
+        <v>3.99</v>
       </c>
       <c r="L40" t="n">
-        <v>3.68</v>
+        <v>2.17</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>131</v>
       </c>
       <c r="D41" t="n">
-        <v>3.87</v>
+        <v>3.4</v>
       </c>
       <c r="E41" t="n">
-        <v>2.59</v>
+        <v>1.59</v>
       </c>
       <c r="F41" t="n">
-        <v>1.17</v>
+        <v>0.27</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.32</v>
+        <v>5.81</v>
       </c>
       <c r="K41" t="n">
-        <v>4.89</v>
+        <v>3.83</v>
       </c>
       <c r="L41" t="n">
-        <v>3.32</v>
+        <v>1.9</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>132</v>
       </c>
       <c r="D42" t="n">
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="E42" t="n">
-        <v>2.34</v>
+        <v>1.37</v>
       </c>
       <c r="F42" t="n">
-        <v>1.07</v>
+        <v>0.21</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.09</v>
+        <v>3.53</v>
       </c>
       <c r="K42" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="L42" t="n">
-        <v>1.31</v>
+        <v>0.3</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>133</v>
       </c>
       <c r="D43" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="E43" t="n">
-        <v>1.72</v>
+        <v>0.86</v>
       </c>
       <c r="F43" t="n">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3920,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.98</v>
+        <v>2.47</v>
       </c>
       <c r="K43" t="n">
-        <v>1.62</v>
+        <v>0.6</v>
       </c>
       <c r="L43" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>134</v>
       </c>
       <c r="D44" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="E44" t="n">
-        <v>1.3</v>
+        <v>0.46</v>
       </c>
       <c r="F44" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3996,16 +3996,16 @@
         <v>135</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2.53</v>
       </c>
       <c r="E45" t="n">
-        <v>1.79</v>
+        <v>0.9</v>
       </c>
       <c r="F45" t="n">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="G45" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.48</v>
+        <v>2.92</v>
       </c>
       <c r="K45" t="n">
-        <v>2.19</v>
+        <v>1.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.19</v>
+        <v>0.54</v>
       </c>
       <c r="M45" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4043,16 +4043,16 @@
         <v>136</v>
       </c>
       <c r="D46" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="E46" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
       <c r="F46" t="n">
-        <v>0.24</v>
+        <v>0.07</v>
       </c>
       <c r="G46" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.19</v>
+        <v>0.62</v>
       </c>
       <c r="K46" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>1.43</v>
       </c>
       <c r="K47" t="n">
-        <v>0.59</v>
+        <v>0.07</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>139</v>
       </c>
       <c r="D48" t="n">
-        <v>4.51</v>
+        <v>3.97</v>
       </c>
       <c r="E48" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8</v>
+        <v>0.84</v>
       </c>
       <c r="G48" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4155,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.38</v>
+        <v>4.79</v>
       </c>
       <c r="K48" t="n">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="L48" t="n">
-        <v>2.31</v>
+        <v>1.23</v>
       </c>
       <c r="M48" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>140</v>
       </c>
       <c r="D49" t="n">
-        <v>3.42</v>
+        <v>2.79</v>
       </c>
       <c r="E49" t="n">
-        <v>1.49</v>
+        <v>0.23</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4202,16 +4202,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.08</v>
+        <v>2.44</v>
       </c>
       <c r="K49" t="n">
-        <v>1.47</v>
+        <v>0.61</v>
       </c>
       <c r="L49" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="M49" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>141</v>
       </c>
       <c r="D50" t="n">
-        <v>1.06</v>
+        <v>0.26</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.8</v>
+        <v>0.99</v>
       </c>
       <c r="K50" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4278,34 +4278,34 @@
         <v>142</v>
       </c>
       <c r="D51" t="n">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="E51" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.01</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.24</v>
-      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4343,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.02</v>
+        <v>4.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.18</v>
+        <v>1.66</v>
       </c>
       <c r="L52" t="n">
-        <v>1.08</v>
+        <v>0.09</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4372,34 +4372,34 @@
         <v>144</v>
       </c>
       <c r="D53" t="n">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="E53" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.01</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.07</v>
-      </c>
       <c r="M53" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4419,16 +4419,16 @@
         <v>145</v>
       </c>
       <c r="D54" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="E54" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.89</v>
+        <v>2.11</v>
       </c>
       <c r="K54" t="n">
-        <v>1.11</v>
+        <v>0.55</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="M54" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>146</v>
       </c>
       <c r="D55" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="E55" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -4484,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.59</v>
+        <v>0.92</v>
       </c>
       <c r="K55" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4513,16 +4513,16 @@
         <v>147</v>
       </c>
       <c r="D56" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="E56" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="F56" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4531,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="n">
-        <v>0.94</v>
+        <v>0.2</v>
       </c>
       <c r="L56" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="E58" t="n">
-        <v>1.9</v>
+        <v>1.13</v>
       </c>
       <c r="F58" t="n">
-        <v>1.01</v>
+        <v>0.19</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4625,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.93</v>
+        <v>3.46</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="L58" t="n">
-        <v>1.92</v>
+        <v>0.85</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4654,16 +4654,16 @@
         <v>151</v>
       </c>
       <c r="D59" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="E59" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="F59" t="n">
-        <v>1.47</v>
+        <v>0.53</v>
       </c>
       <c r="G59" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3.99</v>
+        <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>3.04</v>
+        <v>1.88</v>
       </c>
       <c r="L59" t="n">
-        <v>1.96</v>
+        <v>0.47</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4701,13 +4701,13 @@
         <v>152</v>
       </c>
       <c r="D60" t="n">
-        <v>2.18</v>
+        <v>1.66</v>
       </c>
       <c r="E60" t="n">
-        <v>1.1</v>
+        <v>0.26</v>
       </c>
       <c r="F60" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4719,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.25</v>
+        <v>2.7</v>
       </c>
       <c r="K60" t="n">
-        <v>2.22</v>
+        <v>0.2</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -4748,13 +4748,13 @@
         <v>153</v>
       </c>
       <c r="D61" t="n">
-        <v>4.51</v>
+        <v>4.23</v>
       </c>
       <c r="E61" t="n">
-        <v>3.8</v>
+        <v>3.21</v>
       </c>
       <c r="F61" t="n">
-        <v>2.98</v>
+        <v>2.1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.14</v>
+        <v>3.62</v>
       </c>
       <c r="K61" t="n">
-        <v>3.17</v>
+        <v>2.15</v>
       </c>
       <c r="L61" t="n">
-        <v>2.08</v>
+        <v>0.92</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4795,31 +4795,31 @@
         <v>154</v>
       </c>
       <c r="D62" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>3.18</v>
       </c>
-      <c r="E62" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.93</v>
-      </c>
       <c r="K62" t="n">
-        <v>2.88</v>
+        <v>1.26</v>
       </c>
       <c r="L62" t="n">
-        <v>1.65</v>
+        <v>0.03</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>155</v>
       </c>
       <c r="D63" t="n">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="E63" t="n">
-        <v>2.39</v>
+        <v>1.77</v>
       </c>
       <c r="F63" t="n">
-        <v>1.61</v>
+        <v>0.63</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -4889,16 +4889,16 @@
         <v>156</v>
       </c>
       <c r="D64" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="E64" t="n">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="F64" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
       <c r="G64" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.9</v>
+        <v>4.29</v>
       </c>
       <c r="K64" t="n">
-        <v>3.88</v>
+        <v>2.61</v>
       </c>
       <c r="L64" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>157</v>
       </c>
       <c r="D65" t="n">
-        <v>3.49</v>
+        <v>3.02</v>
       </c>
       <c r="E65" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="F65" t="n">
-        <v>1.38</v>
+        <v>0.24</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.72</v>
+        <v>3.22</v>
       </c>
       <c r="K65" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="L65" t="n">
-        <v>1.72</v>
+        <v>0.31</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4983,16 +4983,16 @@
         <v>159</v>
       </c>
       <c r="D66" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="E66" t="n">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.82</v>
+        <v>0.26</v>
       </c>
       <c r="G66" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5030,13 +5030,13 @@
         <v>160</v>
       </c>
       <c r="D67" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="E67" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="F67" t="n">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -5048,13 +5048,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.66</v>
+        <v>3.27</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="L67" t="n">
-        <v>2.23</v>
+        <v>0.88</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -5077,13 +5077,13 @@
         <v>161</v>
       </c>
       <c r="D68" t="n">
-        <v>2.48</v>
+        <v>2.19</v>
       </c>
       <c r="E68" t="n">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="F68" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -5095,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.49</v>
+        <v>2.77</v>
       </c>
       <c r="K68" t="n">
-        <v>2.58</v>
+        <v>1.13</v>
       </c>
       <c r="L68" t="n">
-        <v>1.55</v>
+        <v>0.1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5124,13 +5124,13 @@
         <v>162</v>
       </c>
       <c r="D69" t="n">
-        <v>3.19</v>
+        <v>2.92</v>
       </c>
       <c r="E69" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="F69" t="n">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5171,13 +5171,13 @@
         <v>163</v>
       </c>
       <c r="D70" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="E70" t="n">
-        <v>2.83</v>
+        <v>2.32</v>
       </c>
       <c r="F70" t="n">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>164</v>
       </c>
       <c r="D71" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="E71" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="F71" t="n">
-        <v>3.86</v>
+        <v>3.03</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5265,13 +5265,13 @@
         <v>165</v>
       </c>
       <c r="D72" t="n">
-        <v>3.36</v>
+        <v>2.97</v>
       </c>
       <c r="E72" t="n">
-        <v>2.47</v>
+        <v>1.64</v>
       </c>
       <c r="F72" t="n">
-        <v>1.46</v>
+        <v>0.33</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5312,13 +5312,13 @@
         <v>167</v>
       </c>
       <c r="D73" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="E73" t="n">
-        <v>2.71</v>
+        <v>2.03</v>
       </c>
       <c r="F73" t="n">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5330,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="L73" t="n">
-        <v>2.01</v>
+        <v>0.66</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -5359,13 +5359,13 @@
         <v>168</v>
       </c>
       <c r="D74" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="E74" t="n">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="F74" t="n">
-        <v>1.85</v>
+        <v>0.93</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5377,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K74" t="n">
-        <v>1.24</v>
+        <v>0.42</v>
       </c>
       <c r="L74" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -5406,13 +5406,13 @@
         <v>169</v>
       </c>
       <c r="D75" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="E75" t="n">
-        <v>2.25</v>
+        <v>1.13</v>
       </c>
       <c r="F75" t="n">
-        <v>0.96</v>
+        <v>0.01</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5453,13 +5453,13 @@
         <v>170</v>
       </c>
       <c r="D76" t="n">
-        <v>3.44</v>
+        <v>3.08</v>
       </c>
       <c r="E76" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="F76" t="n">
-        <v>1.72</v>
+        <v>0.64</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5471,16 +5471,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.37</v>
+        <v>2.77</v>
       </c>
       <c r="K76" t="n">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="L76" t="n">
-        <v>1.13</v>
+        <v>0.12</v>
       </c>
       <c r="M76" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>171</v>
       </c>
       <c r="D77" t="n">
-        <v>3.77</v>
+        <v>3.25</v>
       </c>
       <c r="E77" t="n">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="F77" t="n">
-        <v>1.49</v>
+        <v>0.4</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5518,13 +5518,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.7</v>
+        <v>3.03</v>
       </c>
       <c r="K77" t="n">
-        <v>2.26</v>
+        <v>0.92</v>
       </c>
       <c r="L77" t="n">
-        <v>0.68</v>
+        <v>0.01</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5547,13 +5547,13 @@
         <v>172</v>
       </c>
       <c r="D78" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="E78" t="n">
-        <v>3.44</v>
+        <v>2.8</v>
       </c>
       <c r="F78" t="n">
-        <v>2.63</v>
+        <v>1.63</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>3.23</v>
+        <v>2.27</v>
       </c>
       <c r="L78" t="n">
-        <v>2.22</v>
+        <v>0.77</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>173</v>
       </c>
       <c r="D79" t="n">
-        <v>3.88</v>
+        <v>3.3</v>
       </c>
       <c r="E79" t="n">
-        <v>2.93</v>
+        <v>1.68</v>
       </c>
       <c r="F79" t="n">
-        <v>1.81</v>
+        <v>0.14</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5641,13 +5641,13 @@
         <v>174</v>
       </c>
       <c r="D80" t="n">
-        <v>3.75</v>
+        <v>3.39</v>
       </c>
       <c r="E80" t="n">
-        <v>2.86</v>
+        <v>2.08</v>
       </c>
       <c r="F80" t="n">
-        <v>1.84</v>
+        <v>0.78</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.81</v>
+        <v>2.37</v>
       </c>
       <c r="K80" t="n">
-        <v>1.84</v>
+        <v>0.95</v>
       </c>
       <c r="L80" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5688,13 +5688,13 @@
         <v>175</v>
       </c>
       <c r="D81" t="n">
-        <v>2.8</v>
+        <v>2.51</v>
       </c>
       <c r="E81" t="n">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="F81" t="n">
-        <v>0.77</v>
+        <v>0.23</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="K81" t="n">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -5735,16 +5735,16 @@
         <v>176</v>
       </c>
       <c r="D82" t="n">
-        <v>4.55</v>
+        <v>4.31</v>
       </c>
       <c r="E82" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="F82" t="n">
-        <v>3.17</v>
+        <v>2.47</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>4.63</v>
+        <v>4.28</v>
       </c>
       <c r="K82" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
       </c>
       <c r="L82" t="n">
-        <v>3.04</v>
+        <v>2.38</v>
       </c>
       <c r="M82" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5782,13 +5782,13 @@
         <v>178</v>
       </c>
       <c r="D83" t="n">
-        <v>3.13</v>
+        <v>2.71</v>
       </c>
       <c r="E83" t="n">
-        <v>1.98</v>
+        <v>1.11</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5800,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K83" t="n">
-        <v>1.02</v>
+        <v>0.27</v>
       </c>
       <c r="L83" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M83" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5847,16 +5847,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.3</v>
+        <v>0.71</v>
       </c>
       <c r="K84" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5876,13 +5876,13 @@
         <v>180</v>
       </c>
       <c r="D85" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="E85" t="n">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="F85" t="n">
-        <v>0.75</v>
+        <v>0.27</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5894,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="K85" t="n">
-        <v>0.83</v>
+        <v>0.11</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -5923,13 +5923,13 @@
         <v>181</v>
       </c>
       <c r="D86" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="E86" t="n">
-        <v>2.33</v>
+        <v>1.77</v>
       </c>
       <c r="F86" t="n">
-        <v>1.46</v>
+        <v>0.86</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.8</v>
+        <v>5.51</v>
       </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>4.37</v>
       </c>
       <c r="L86" t="n">
-        <v>4.07</v>
+        <v>3.33</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5970,13 +5970,13 @@
         <v>182</v>
       </c>
       <c r="D87" t="n">
-        <v>2.96</v>
+        <v>2.61</v>
       </c>
       <c r="E87" t="n">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.56</v>
+        <v>0.01</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>183</v>
       </c>
       <c r="D88" t="n">
-        <v>4.63</v>
+        <v>4.43</v>
       </c>
       <c r="E88" t="n">
-        <v>4.09</v>
+        <v>3.65</v>
       </c>
       <c r="F88" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>5.77</v>
+        <v>5.57</v>
       </c>
       <c r="K88" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="L88" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>184</v>
       </c>
       <c r="D89" t="n">
-        <v>2.54</v>
+        <v>2.12</v>
       </c>
       <c r="E89" t="n">
-        <v>1.52</v>
+        <v>0.8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="G89" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6082,16 +6082,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="M89" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>185</v>
       </c>
       <c r="D90" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="E90" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.11</v>
+        <v>0.63</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -6158,16 +6158,16 @@
         <v>186</v>
       </c>
       <c r="D91" t="n">
-        <v>2.86</v>
+        <v>2.57</v>
       </c>
       <c r="E91" t="n">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="F91" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6176,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="K91" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -6205,16 +6205,16 @@
         <v>187</v>
       </c>
       <c r="D92" t="n">
-        <v>4.2</v>
+        <v>3.93</v>
       </c>
       <c r="E92" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="F92" t="n">
-        <v>2.75</v>
+        <v>2.04</v>
       </c>
       <c r="G92" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6223,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.62</v>
+        <v>5.38</v>
       </c>
       <c r="K92" t="n">
-        <v>4.93</v>
+        <v>4.42</v>
       </c>
       <c r="L92" t="n">
-        <v>4.13</v>
+        <v>3.29</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>188</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1</v>
+        <v>0.61</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -6270,16 +6270,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.09</v>
+        <v>0.46</v>
       </c>
       <c r="K93" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6299,13 +6299,13 @@
         <v>189</v>
       </c>
       <c r="D94" t="n">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
       <c r="E94" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="F94" t="n">
-        <v>1.59</v>
+        <v>0.65</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -6317,16 +6317,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.86</v>
+        <v>2.32</v>
       </c>
       <c r="K94" t="n">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="L94" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="M94" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6346,13 +6346,13 @@
         <v>190</v>
       </c>
       <c r="D95" t="n">
-        <v>3.17</v>
+        <v>2.82</v>
       </c>
       <c r="E95" t="n">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="F95" t="n">
-        <v>1.25</v>
+        <v>0.36</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -6364,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="n">
-        <v>1.23</v>
+        <v>0.36</v>
       </c>
       <c r="L95" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -6393,37 +6393,37 @@
         <v>191</v>
       </c>
       <c r="D96" t="n">
-        <v>3.12</v>
+        <v>2.59</v>
       </c>
       <c r="E96" t="n">
-        <v>2.07</v>
+        <v>1.13</v>
       </c>
       <c r="F96" t="n">
-        <v>0.99</v>
+        <v>0.31</v>
       </c>
       <c r="G96" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.79</v>
+        <v>1.59</v>
       </c>
       <c r="K96" t="n">
-        <v>1.34</v>
+        <v>0.24</v>
       </c>
       <c r="L96" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="M96" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -6440,13 +6440,13 @@
         <v>192</v>
       </c>
       <c r="D97" t="n">
-        <v>7.93</v>
+        <v>2.58</v>
       </c>
       <c r="E97" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6458,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>8.6</v>
+        <v>2.86</v>
       </c>
       <c r="K97" t="n">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -6487,13 +6487,13 @@
         <v>193</v>
       </c>
       <c r="D98" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="E98" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="F98" t="n">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -6505,16 +6505,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="K98" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6534,13 +6534,13 @@
         <v>194</v>
       </c>
       <c r="D99" t="n">
-        <v>3.51</v>
+        <v>3.03</v>
       </c>
       <c r="E99" t="n">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="F99" t="n">
-        <v>0.89</v>
+        <v>0.14</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -6552,16 +6552,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.31</v>
+        <v>1.66</v>
       </c>
       <c r="K99" t="n">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="L99" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M99" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6581,16 +6581,16 @@
         <v>195</v>
       </c>
       <c r="D100" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="E100" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
       <c r="F100" t="n">
-        <v>0.61</v>
+        <v>0.09</v>
       </c>
       <c r="G100" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6599,16 +6599,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="K100" t="n">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>196</v>
       </c>
       <c r="D101" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="E101" t="n">
-        <v>1.42</v>
+        <v>0.74</v>
       </c>
       <c r="F101" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6675,13 +6675,13 @@
         <v>198</v>
       </c>
       <c r="D102" t="n">
-        <v>4.54</v>
+        <v>4.26</v>
       </c>
       <c r="E102" t="n">
-        <v>3.8</v>
+        <v>3.19</v>
       </c>
       <c r="F102" t="n">
-        <v>2.93</v>
+        <v>1.97</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>4.23</v>
+        <v>3.9</v>
       </c>
       <c r="K102" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="L102" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6722,13 +6722,13 @@
         <v>199</v>
       </c>
       <c r="D103" t="n">
-        <v>6.22</v>
+        <v>5.92</v>
       </c>
       <c r="E103" t="n">
-        <v>5.39</v>
+        <v>4.74</v>
       </c>
       <c r="F103" t="n">
-        <v>4.43</v>
+        <v>3.38</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6740,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>5.48</v>
+        <v>5.16</v>
       </c>
       <c r="K103" t="n">
-        <v>4.55</v>
+        <v>3.87</v>
       </c>
       <c r="L103" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -6769,13 +6769,13 @@
         <v>200</v>
       </c>
       <c r="D104" t="n">
-        <v>6.85</v>
+        <v>6.6</v>
       </c>
       <c r="E104" t="n">
-        <v>6.12</v>
+        <v>5.59</v>
       </c>
       <c r="F104" t="n">
-        <v>5.27</v>
+        <v>4.41</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -6787,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>4.92</v>
+        <v>4.66</v>
       </c>
       <c r="K104" t="n">
-        <v>4.05</v>
+        <v>3.48</v>
       </c>
       <c r="L104" t="n">
-        <v>3.04</v>
+        <v>2.1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6816,13 +6816,13 @@
         <v>201</v>
       </c>
       <c r="D105" t="n">
-        <v>4.65</v>
+        <v>4.42</v>
       </c>
       <c r="E105" t="n">
-        <v>3.89</v>
+        <v>3.38</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>5.11</v>
+        <v>4.83</v>
       </c>
       <c r="K105" t="n">
-        <v>4.32</v>
+        <v>3.7</v>
       </c>
       <c r="L105" t="n">
-        <v>3.39</v>
+        <v>2.46</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -6863,13 +6863,13 @@
         <v>202</v>
       </c>
       <c r="D106" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="E106" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="F106" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6910,13 +6910,13 @@
         <v>203</v>
       </c>
       <c r="D107" t="n">
-        <v>3.33</v>
+        <v>3.05</v>
       </c>
       <c r="E107" t="n">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="F107" t="n">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4.08</v>
+        <v>3.73</v>
       </c>
       <c r="K107" t="n">
-        <v>3.33</v>
+        <v>2.58</v>
       </c>
       <c r="L107" t="n">
-        <v>2.44</v>
+        <v>1.33</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6957,13 +6957,13 @@
         <v>204</v>
       </c>
       <c r="D108" t="n">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="E108" t="n">
-        <v>2.31</v>
+        <v>1.77</v>
       </c>
       <c r="F108" t="n">
-        <v>1.49</v>
+        <v>0.7</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -6975,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="K108" t="n">
-        <v>1.85</v>
+        <v>1.14</v>
       </c>
       <c r="L108" t="n">
-        <v>0.66</v>
+        <v>0.07</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -7004,13 +7004,13 @@
         <v>205</v>
       </c>
       <c r="D109" t="n">
-        <v>3.69</v>
+        <v>3.43</v>
       </c>
       <c r="E109" t="n">
-        <v>3.01</v>
+        <v>2.44</v>
       </c>
       <c r="F109" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>4.8</v>
+        <v>4.58</v>
       </c>
       <c r="K109" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="L109" t="n">
-        <v>3.39</v>
+        <v>2.61</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7051,37 +7051,37 @@
         <v>207</v>
       </c>
       <c r="D110" t="n">
-        <v>2.67</v>
+        <v>2.12</v>
       </c>
       <c r="E110" t="n">
-        <v>1.51</v>
+        <v>0.62</v>
       </c>
       <c r="F110" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="G110" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.27</v>
+        <v>1.88</v>
       </c>
       <c r="K110" t="n">
-        <v>1.51</v>
+        <v>0.09</v>
       </c>
       <c r="L110" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="M110" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -7098,13 +7098,13 @@
         <v>208</v>
       </c>
       <c r="D111" t="n">
-        <v>3.61</v>
+        <v>2.27</v>
       </c>
       <c r="E111" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="F111" t="n">
-        <v>0.64</v>
+        <v>0.01</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -7116,13 +7116,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>4.81</v>
+        <v>2.27</v>
       </c>
       <c r="K111" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -7145,13 +7145,13 @@
         <v>209</v>
       </c>
       <c r="D112" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="E112" t="n">
-        <v>1.78</v>
+        <v>1.08</v>
       </c>
       <c r="F112" t="n">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -7163,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>3.94</v>
+        <v>3.42</v>
       </c>
       <c r="K112" t="n">
-        <v>2.87</v>
+        <v>1.75</v>
       </c>
       <c r="L112" t="n">
-        <v>1.63</v>
+        <v>0.29</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7192,13 +7192,13 @@
         <v>210</v>
       </c>
       <c r="D113" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="E113" t="n">
-        <v>2.08</v>
+        <v>1.16</v>
       </c>
       <c r="F113" t="n">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -7239,13 +7239,13 @@
         <v>211</v>
       </c>
       <c r="D114" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="E114" t="n">
-        <v>2.19</v>
+        <v>1.12</v>
       </c>
       <c r="F114" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -7257,13 +7257,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>3.46</v>
+        <v>2.58</v>
       </c>
       <c r="K114" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -7286,13 +7286,13 @@
         <v>212</v>
       </c>
       <c r="D115" t="n">
-        <v>4.01</v>
+        <v>3.65</v>
       </c>
       <c r="E115" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="F115" t="n">
-        <v>2.16</v>
+        <v>1.06</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -7304,16 +7304,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="K115" t="n">
-        <v>2.67</v>
+        <v>1.82</v>
       </c>
       <c r="L115" t="n">
-        <v>1.82</v>
+        <v>0.73</v>
       </c>
       <c r="M115" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -7333,13 +7333,13 @@
         <v>213</v>
       </c>
       <c r="D116" t="n">
-        <v>3.97</v>
+        <v>3.8</v>
       </c>
       <c r="E116" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="F116" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -7380,37 +7380,37 @@
         <v>214</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="E117" t="n">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="F117" t="n">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="n">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3.72</v>
+        <v>3.22</v>
       </c>
       <c r="K117" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="L117" t="n">
-        <v>2.05</v>
+        <v>0.83</v>
       </c>
       <c r="M117" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -7427,13 +7427,13 @@
         <v>215</v>
       </c>
       <c r="D118" t="n">
-        <v>3.32</v>
+        <v>3.02</v>
       </c>
       <c r="E118" t="n">
-        <v>2.67</v>
+        <v>2.02</v>
       </c>
       <c r="F118" t="n">
-        <v>1.92</v>
+        <v>0.87</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7445,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="K118" t="n">
-        <v>2.19</v>
+        <v>1.45</v>
       </c>
       <c r="L118" t="n">
-        <v>1.43</v>
+        <v>0.42</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7474,13 +7474,13 @@
         <v>216</v>
       </c>
       <c r="D119" t="n">
-        <v>3.92</v>
+        <v>3.55</v>
       </c>
       <c r="E119" t="n">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="F119" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -7492,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>3.84</v>
+        <v>3.38</v>
       </c>
       <c r="K119" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="L119" t="n">
-        <v>1.06</v>
+        <v>0.13</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -7521,13 +7521,13 @@
         <v>217</v>
       </c>
       <c r="D120" t="n">
-        <v>2.53</v>
+        <v>2.21</v>
       </c>
       <c r="E120" t="n">
-        <v>1.47</v>
+        <v>0.79</v>
       </c>
       <c r="F120" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -7568,13 +7568,13 @@
         <v>218</v>
       </c>
       <c r="D121" t="n">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="E121" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="F121" t="n">
-        <v>1.03</v>
+        <v>0.36</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7586,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="K121" t="n">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="L121" t="n">
-        <v>1.57</v>
+        <v>0.53</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>219</v>
       </c>
       <c r="D122" t="n">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="E122" t="n">
-        <v>0.94</v>
+        <v>0.34</v>
       </c>
       <c r="F122" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -7662,13 +7662,13 @@
         <v>221</v>
       </c>
       <c r="D123" t="n">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="E123" t="n">
-        <v>2.84</v>
+        <v>2.21</v>
       </c>
       <c r="F123" t="n">
-        <v>2.01</v>
+        <v>1.04</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -7680,13 +7680,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
       <c r="K123" t="n">
-        <v>3.33</v>
+        <v>2.59</v>
       </c>
       <c r="L123" t="n">
-        <v>2.61</v>
+        <v>1.41</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -7709,13 +7709,13 @@
         <v>222</v>
       </c>
       <c r="D124" t="n">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="E124" t="n">
-        <v>2.69</v>
+        <v>2.09</v>
       </c>
       <c r="F124" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7756,13 +7756,13 @@
         <v>223</v>
       </c>
       <c r="D125" t="n">
-        <v>3.98</v>
+        <v>3.78</v>
       </c>
       <c r="E125" t="n">
-        <v>3.41</v>
+        <v>2.98</v>
       </c>
       <c r="F125" t="n">
-        <v>2.75</v>
+        <v>2.04</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -7803,13 +7803,13 @@
         <v>224</v>
       </c>
       <c r="D126" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="E126" t="n">
-        <v>2.73</v>
+        <v>1.79</v>
       </c>
       <c r="F126" t="n">
-        <v>1.57</v>
+        <v>0.41</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7821,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="K126" t="n">
-        <v>2.96</v>
+        <v>1.83</v>
       </c>
       <c r="L126" t="n">
-        <v>2.08</v>
+        <v>0.35</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -7850,13 +7850,13 @@
         <v>225</v>
       </c>
       <c r="D127" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="E127" t="n">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="F127" t="n">
-        <v>0.57</v>
+        <v>0.01</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>226</v>
       </c>
       <c r="D128" t="n">
-        <v>5.32</v>
+        <v>5.11</v>
       </c>
       <c r="E128" t="n">
-        <v>4.61</v>
+        <v>4.16</v>
       </c>
       <c r="F128" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>4.24</v>
+        <v>3.91</v>
       </c>
       <c r="K128" t="n">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="L128" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         <v>227</v>
       </c>
       <c r="D129" t="n">
-        <v>4.18</v>
+        <v>3.97</v>
       </c>
       <c r="E129" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="F129" t="n">
-        <v>2.37</v>
+        <v>1.76</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -7962,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3.9</v>
+        <v>3.61</v>
       </c>
       <c r="K129" t="n">
-        <v>3.03</v>
+        <v>2.42</v>
       </c>
       <c r="L129" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>228</v>
       </c>
       <c r="D130" t="n">
-        <v>4.43</v>
+        <v>4.14</v>
       </c>
       <c r="E130" t="n">
-        <v>3.58</v>
+        <v>2.97</v>
       </c>
       <c r="F130" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="K130" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="L130" t="n">
-        <v>1.32</v>
+        <v>0.78</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -8038,13 +8038,13 @@
         <v>229</v>
       </c>
       <c r="D131" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="E131" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="F131" t="n">
-        <v>1.53</v>
+        <v>0.72</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>231</v>
       </c>
       <c r="D132" t="n">
-        <v>5.88</v>
+        <v>5.64</v>
       </c>
       <c r="E132" t="n">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="F132" t="n">
-        <v>4.48</v>
+        <v>3.65</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -8103,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>5.95</v>
+        <v>5.35</v>
       </c>
       <c r="K132" t="n">
-        <v>4.84</v>
+        <v>3.67</v>
       </c>
       <c r="L132" t="n">
-        <v>3.59</v>
+        <v>1.98</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -8132,13 +8132,13 @@
         <v>232</v>
       </c>
       <c r="D133" t="n">
-        <v>6.35</v>
+        <v>6.1</v>
       </c>
       <c r="E133" t="n">
-        <v>5.6</v>
+        <v>5.05</v>
       </c>
       <c r="F133" t="n">
-        <v>4.73</v>
+        <v>3.84</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -8150,13 +8150,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>6.11</v>
+        <v>5.7</v>
       </c>
       <c r="K133" t="n">
-        <v>5.31</v>
+        <v>4.42</v>
       </c>
       <c r="L133" t="n">
-        <v>4.38</v>
+        <v>2.94</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>233</v>
       </c>
       <c r="D134" t="n">
-        <v>4.86</v>
+        <v>4.57</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>3.38</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>1.99</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -8197,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.83</v>
+        <v>2.53</v>
       </c>
       <c r="K134" t="n">
-        <v>1.94</v>
+        <v>1.29</v>
       </c>
       <c r="L134" t="n">
-        <v>0.96</v>
+        <v>0.22</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -8226,13 +8226,13 @@
         <v>234</v>
       </c>
       <c r="D135" t="n">
-        <v>5.34</v>
+        <v>5.02</v>
       </c>
       <c r="E135" t="n">
-        <v>4.26</v>
+        <v>3.56</v>
       </c>
       <c r="F135" t="n">
-        <v>2.99</v>
+        <v>1.85</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -8244,16 +8244,16 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>3.57</v>
+        <v>3.16</v>
       </c>
       <c r="K135" t="n">
-        <v>2.26</v>
+        <v>1.5</v>
       </c>
       <c r="L135" t="n">
-        <v>1.09</v>
+        <v>0.52</v>
       </c>
       <c r="M135" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>235</v>
       </c>
       <c r="D136" t="n">
-        <v>4.83</v>
+        <v>4.53</v>
       </c>
       <c r="E136" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="F136" t="n">
-        <v>3.01</v>
+        <v>2.02</v>
       </c>
       <c r="G136" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>4.23</v>
+        <v>3.69</v>
       </c>
       <c r="K136" t="n">
-        <v>3.11</v>
+        <v>2.34</v>
       </c>
       <c r="L136" t="n">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="M136" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8320,13 +8320,13 @@
         <v>236</v>
       </c>
       <c r="D137" t="n">
-        <v>5.55</v>
+        <v>5.29</v>
       </c>
       <c r="E137" t="n">
-        <v>4.84</v>
+        <v>4.29</v>
       </c>
       <c r="F137" t="n">
-        <v>4.02</v>
+        <v>3.15</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -8338,16 +8338,16 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>5.18</v>
+        <v>4.83</v>
       </c>
       <c r="K137" t="n">
-        <v>4.24</v>
+        <v>3.54</v>
       </c>
       <c r="L137" t="n">
-        <v>3.21</v>
+        <v>2.2</v>
       </c>
       <c r="M137" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8367,13 +8367,13 @@
         <v>237</v>
       </c>
       <c r="D138" t="n">
-        <v>6.37</v>
+        <v>6.1</v>
       </c>
       <c r="E138" t="n">
-        <v>5.6</v>
+        <v>5.02</v>
       </c>
       <c r="F138" t="n">
-        <v>4.7</v>
+        <v>3.76</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -8385,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>6.1</v>
+        <v>5.57</v>
       </c>
       <c r="K138" t="n">
-        <v>4.98</v>
+        <v>3.89</v>
       </c>
       <c r="L138" t="n">
-        <v>3.7</v>
+        <v>2.18</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -8414,13 +8414,13 @@
         <v>239</v>
       </c>
       <c r="D139" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="E139" t="n">
-        <v>2.02</v>
+        <v>1.07</v>
       </c>
       <c r="F139" t="n">
-        <v>0.93</v>
+        <v>0.28</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -8432,13 +8432,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>6.33</v>
+        <v>3.33</v>
       </c>
       <c r="K139" t="n">
-        <v>3.39</v>
+        <v>0.01</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>240</v>
       </c>
       <c r="D140" t="n">
-        <v>3.34</v>
+        <v>2.3</v>
       </c>
       <c r="E140" t="n">
-        <v>1.8</v>
+        <v>0.15</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="K140" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -8508,37 +8508,37 @@
         <v>241</v>
       </c>
       <c r="D141" t="n">
-        <v>3.84</v>
+        <v>2.89</v>
       </c>
       <c r="E141" t="n">
-        <v>2.98</v>
+        <v>1.18</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0.24</v>
       </c>
       <c r="G141" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.01</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K141" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -8555,13 +8555,13 @@
         <v>242</v>
       </c>
       <c r="D142" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="E142" t="n">
-        <v>3.38</v>
+        <v>0.98</v>
       </c>
       <c r="F142" t="n">
-        <v>2.17</v>
+        <v>0.09</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -8602,13 +8602,13 @@
         <v>243</v>
       </c>
       <c r="D143" t="n">
-        <v>4.41</v>
+        <v>3.3</v>
       </c>
       <c r="E143" t="n">
-        <v>3.58</v>
+        <v>1.39</v>
       </c>
       <c r="F143" t="n">
-        <v>2.61</v>
+        <v>0.34</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -8620,13 +8620,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>8.06</v>
+        <v>5.41</v>
       </c>
       <c r="K143" t="n">
-        <v>5.64</v>
+        <v>0.34</v>
       </c>
       <c r="L143" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -8649,37 +8649,37 @@
         <v>244</v>
       </c>
       <c r="D144" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="E144" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
         <v>1.36</v>
       </c>
-      <c r="F144" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.83</v>
-      </c>
       <c r="K144" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -8696,37 +8696,37 @@
         <v>245</v>
       </c>
       <c r="D145" t="n">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="E145" t="n">
-        <v>2.19</v>
+        <v>1.52</v>
       </c>
       <c r="F145" t="n">
-        <v>1.39</v>
+        <v>0.93</v>
       </c>
       <c r="G145" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>4.36</v>
+        <v>1.69</v>
       </c>
       <c r="K145" t="n">
-        <v>1.72</v>
+        <v>0.24</v>
       </c>
       <c r="L145" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="M145" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -8743,37 +8743,37 @@
         <v>246</v>
       </c>
       <c r="D146" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="E146" t="n">
-        <v>1.23</v>
+        <v>0.35</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="G146" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>3.75</v>
+        <v>1.43</v>
       </c>
       <c r="K146" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -8790,16 +8790,16 @@
         <v>247</v>
       </c>
       <c r="D147" t="n">
-        <v>1.91</v>
+        <v>0.81</v>
       </c>
       <c r="E147" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.7</v>
+        <v>0.48</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8837,16 +8837,16 @@
         <v>248</v>
       </c>
       <c r="D148" t="n">
-        <v>2.74</v>
+        <v>2.25</v>
       </c>
       <c r="E148" t="n">
-        <v>1.73</v>
+        <v>0.85</v>
       </c>
       <c r="F148" t="n">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8855,13 +8855,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>4.3</v>
+        <v>3.16</v>
       </c>
       <c r="K148" t="n">
-        <v>2.88</v>
+        <v>1.41</v>
       </c>
       <c r="L148" t="n">
-        <v>1.41</v>
+        <v>0.23</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -8884,34 +8884,34 @@
         <v>249</v>
       </c>
       <c r="D149" t="n">
-        <v>3.33</v>
+        <v>2.27</v>
       </c>
       <c r="E149" t="n">
-        <v>2.09</v>
+        <v>0.54</v>
       </c>
       <c r="F149" t="n">
-        <v>0.83</v>
+        <v>0.04</v>
       </c>
       <c r="G149" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4.39</v>
+        <v>2.17</v>
       </c>
       <c r="K149" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -8931,16 +8931,16 @@
         <v>251</v>
       </c>
       <c r="D150" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="E150" t="n">
-        <v>1.44</v>
+        <v>0.74</v>
       </c>
       <c r="F150" t="n">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="G150" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -8949,13 +8949,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>4.67</v>
+        <v>3.56</v>
       </c>
       <c r="K150" t="n">
-        <v>3.16</v>
+        <v>0.98</v>
       </c>
       <c r="L150" t="n">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -8978,19 +8978,19 @@
         <v>252</v>
       </c>
       <c r="D151" t="n">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="E151" t="n">
-        <v>1.1</v>
+        <v>0.16</v>
       </c>
       <c r="F151" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -9025,16 +9025,16 @@
         <v>253</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="E152" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9072,16 +9072,16 @@
         <v>254</v>
       </c>
       <c r="D153" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="E153" t="n">
-        <v>1.1</v>
+        <v>0.35</v>
       </c>
       <c r="F153" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="G153" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -9119,16 +9119,16 @@
         <v>255</v>
       </c>
       <c r="D154" t="n">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9166,34 +9166,34 @@
         <v>256</v>
       </c>
       <c r="D155" t="n">
-        <v>2.31</v>
+        <v>1.74</v>
       </c>
       <c r="E155" t="n">
-        <v>1.35</v>
+        <v>0.47</v>
       </c>
       <c r="F155" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="G155" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.65</v>
+        <v>1.71</v>
       </c>
       <c r="K155" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="L155" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9213,16 +9213,16 @@
         <v>257</v>
       </c>
       <c r="D156" t="n">
-        <v>1.4</v>
+        <v>0.72</v>
       </c>
       <c r="E156" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="F156" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.61</v>
+        <v>0.66</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>258</v>
       </c>
       <c r="D157" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="E157" t="n">
-        <v>1.19</v>
+        <v>0.4</v>
       </c>
       <c r="F157" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -9307,13 +9307,13 @@
         <v>259</v>
       </c>
       <c r="D158" t="n">
-        <v>3.02</v>
+        <v>2.49</v>
       </c>
       <c r="E158" t="n">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="F158" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -9354,16 +9354,16 @@
         <v>260</v>
       </c>
       <c r="D159" t="n">
-        <v>0.77</v>
+        <v>0.4</v>
       </c>
       <c r="E159" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>261</v>
       </c>
       <c r="D160" t="n">
-        <v>1.41</v>
+        <v>0.95</v>
       </c>
       <c r="E160" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="F160" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9448,13 +9448,13 @@
         <v>262</v>
       </c>
       <c r="D161" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="E161" t="n">
-        <v>0.98</v>
+        <v>0.24</v>
       </c>
       <c r="F161" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>263</v>
       </c>
       <c r="D162" t="n">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="E162" t="n">
-        <v>0.34</v>
+        <v>0.07</v>
       </c>
       <c r="F162" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -9542,16 +9542,16 @@
         <v>265</v>
       </c>
       <c r="D163" t="n">
-        <v>3.78</v>
+        <v>2.38</v>
       </c>
       <c r="E163" t="n">
-        <v>2.43</v>
+        <v>0.15</v>
       </c>
       <c r="F163" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9560,13 +9560,13 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>6.03</v>
+        <v>3.35</v>
       </c>
       <c r="K163" t="n">
-        <v>3.7</v>
+        <v>0.01</v>
       </c>
       <c r="L163" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
         <v>0</v>
@@ -9589,16 +9589,16 @@
         <v>266</v>
       </c>
       <c r="D164" t="n">
-        <v>1.72</v>
+        <v>0.87</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9607,16 +9607,16 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.24</v>
+        <v>0.94</v>
       </c>
       <c r="K164" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9636,16 +9636,16 @@
         <v>267</v>
       </c>
       <c r="D165" t="n">
-        <v>6.09</v>
+        <v>3.07</v>
       </c>
       <c r="E165" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -9654,16 +9654,16 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>3.83</v>
+        <v>1.99</v>
       </c>
       <c r="K165" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -9683,16 +9683,16 @@
         <v>268</v>
       </c>
       <c r="D166" t="n">
-        <v>3.49</v>
+        <v>2.14</v>
       </c>
       <c r="E166" t="n">
-        <v>2.1</v>
+        <v>0.14</v>
       </c>
       <c r="F166" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -9701,16 +9701,16 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="K166" t="n">
-        <v>1.22</v>
+        <v>0.03</v>
       </c>
       <c r="L166" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -9730,16 +9730,16 @@
         <v>269</v>
       </c>
       <c r="D167" t="n">
-        <v>5.5</v>
+        <v>3.51</v>
       </c>
       <c r="E167" t="n">
-        <v>3.22</v>
+        <v>0.12</v>
       </c>
       <c r="F167" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -9748,13 +9748,13 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>4.08</v>
+        <v>2.42</v>
       </c>
       <c r="K167" t="n">
-        <v>2.19</v>
+        <v>0.04</v>
       </c>
       <c r="L167" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -9777,16 +9777,16 @@
         <v>271</v>
       </c>
       <c r="D168" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="E168" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>2.22</v>
+        <v>1.22</v>
       </c>
       <c r="K168" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="L168" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -9824,34 +9824,34 @@
         <v>272</v>
       </c>
       <c r="D169" t="n">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="E169" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="F169" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.11</v>
       </c>
-      <c r="G169" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.79</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -9871,10 +9871,10 @@
         <v>273</v>
       </c>
       <c r="D170" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.59</v>
+        <v>1.24</v>
       </c>
       <c r="K170" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -9918,34 +9918,34 @@
         <v>274</v>
       </c>
       <c r="D171" t="n">
-        <v>2.47</v>
+        <v>1.97</v>
       </c>
       <c r="E171" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
         <v>1.03</v>
       </c>
-      <c r="F171" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.84</v>
-      </c>
       <c r="K171" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="L171" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>275</v>
       </c>
       <c r="D172" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="E172" t="n">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -9983,16 +9983,16 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.5</v>
+        <v>0.62</v>
       </c>
       <c r="K172" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -10012,16 +10012,16 @@
         <v>276</v>
       </c>
       <c r="D173" t="n">
-        <v>1.56</v>
+        <v>0.79</v>
       </c>
       <c r="E173" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10030,16 +10030,16 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.63</v>
+        <v>0.79</v>
       </c>
       <c r="K173" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -10059,16 +10059,16 @@
         <v>277</v>
       </c>
       <c r="D174" t="n">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="E174" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="F174" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10077,16 +10077,16 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K174" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="L174" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -10106,16 +10106,16 @@
         <v>278</v>
       </c>
       <c r="D175" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="E175" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="K175" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -10153,16 +10153,16 @@
         <v>279</v>
       </c>
       <c r="D176" t="n">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="E176" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="F176" t="n">
-        <v>0.18</v>
+        <v>0.07</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10171,16 +10171,16 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.02</v>
+        <v>0.78</v>
       </c>
       <c r="K176" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -10247,16 +10247,16 @@
         <v>281</v>
       </c>
       <c r="D178" t="n">
-        <v>1.74</v>
+        <v>1.22</v>
       </c>
       <c r="E178" t="n">
-        <v>0.56</v>
+        <v>0.15</v>
       </c>
       <c r="F178" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="G178" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0.66</v>
+        <v>0.07</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N178" t="n">
         <v>0</v>
@@ -10294,16 +10294,16 @@
         <v>283</v>
       </c>
       <c r="D179" t="n">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
       <c r="E179" t="n">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="F179" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="G179" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10312,16 +10312,16 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>3.61</v>
+        <v>3.06</v>
       </c>
       <c r="K179" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="L179" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="M179" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -10341,16 +10341,16 @@
         <v>284</v>
       </c>
       <c r="D180" t="n">
-        <v>1.84</v>
+        <v>1.3</v>
       </c>
       <c r="E180" t="n">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="F180" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10359,16 +10359,16 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="K180" t="n">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="L180" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -10388,16 +10388,16 @@
         <v>285</v>
       </c>
       <c r="D181" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="E181" t="n">
-        <v>0.71</v>
+        <v>0.23</v>
       </c>
       <c r="F181" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10406,16 +10406,16 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>3.28</v>
+        <v>2.69</v>
       </c>
       <c r="K181" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="M181" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -10435,16 +10435,16 @@
         <v>286</v>
       </c>
       <c r="D182" t="n">
-        <v>2.83</v>
+        <v>1.87</v>
       </c>
       <c r="E182" t="n">
-        <v>1.32</v>
+        <v>0.26</v>
       </c>
       <c r="F182" t="n">
-        <v>0.41</v>
+        <v>0.07</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -10453,16 +10453,16 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="K182" t="n">
-        <v>1.11</v>
+        <v>0.51</v>
       </c>
       <c r="L182" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -10482,13 +10482,13 @@
         <v>287</v>
       </c>
       <c r="D183" t="n">
-        <v>7.16</v>
+        <v>6.55</v>
       </c>
       <c r="E183" t="n">
-        <v>5.37</v>
+        <v>4.07</v>
       </c>
       <c r="F183" t="n">
-        <v>3.29</v>
+        <v>1.55</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -10500,13 +10500,13 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>6.95</v>
+        <v>6.19</v>
       </c>
       <c r="K183" t="n">
-        <v>5.23</v>
+        <v>3.72</v>
       </c>
       <c r="L183" t="n">
-        <v>3.31</v>
+        <v>1.79</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>288</v>
       </c>
       <c r="D184" t="n">
-        <v>1.63</v>
+        <v>0.92</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="F184" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -10547,16 +10547,16 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.81</v>
+        <v>2.14</v>
       </c>
       <c r="K184" t="n">
-        <v>1.35</v>
+        <v>0.49</v>
       </c>
       <c r="L184" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="M184" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
@@ -10576,13 +10576,13 @@
         <v>290</v>
       </c>
       <c r="D185" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="E185" t="n">
-        <v>1.28</v>
+        <v>0.75</v>
       </c>
       <c r="F185" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -10623,16 +10623,16 @@
         <v>291</v>
       </c>
       <c r="D186" t="n">
-        <v>2.31</v>
+        <v>1.87</v>
       </c>
       <c r="E186" t="n">
-        <v>1.51</v>
+        <v>0.67</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7</v>
+        <v>0.06</v>
       </c>
       <c r="G186" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -10641,16 +10641,16 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="K186" t="n">
-        <v>1.26</v>
+        <v>0.17</v>
       </c>
       <c r="L186" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>292</v>
       </c>
       <c r="D187" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="E187" t="n">
-        <v>1.47</v>
+        <v>0.84</v>
       </c>
       <c r="F187" t="n">
-        <v>0.73</v>
+        <v>0.14</v>
       </c>
       <c r="G187" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -10717,16 +10717,16 @@
         <v>293</v>
       </c>
       <c r="D188" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="E188" t="n">
-        <v>1.32</v>
+        <v>0.72</v>
       </c>
       <c r="F188" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10735,13 +10735,13 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="K188" t="n">
-        <v>2.52</v>
+        <v>0.89</v>
       </c>
       <c r="L188" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
@@ -10764,13 +10764,13 @@
         <v>294</v>
       </c>
       <c r="D189" t="n">
-        <v>2.23</v>
+        <v>1.84</v>
       </c>
       <c r="E189" t="n">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -10811,13 +10811,13 @@
         <v>295</v>
       </c>
       <c r="D190" t="n">
-        <v>2.71</v>
+        <v>2.31</v>
       </c>
       <c r="E190" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="F190" t="n">
-        <v>1.28</v>
+        <v>0.23</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="K190" t="n">
-        <v>1.19</v>
+        <v>0.05</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -10858,16 +10858,16 @@
         <v>296</v>
       </c>
       <c r="D191" t="n">
-        <v>2.93</v>
+        <v>2.43</v>
       </c>
       <c r="E191" t="n">
-        <v>2.17</v>
+        <v>1.11</v>
       </c>
       <c r="F191" t="n">
-        <v>1.29</v>
+        <v>0.1</v>
       </c>
       <c r="G191" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -10876,13 +10876,13 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>3.04</v>
+        <v>2.13</v>
       </c>
       <c r="K191" t="n">
-        <v>1.98</v>
+        <v>0.48</v>
       </c>
       <c r="L191" t="n">
-        <v>0.78</v>
+        <v>0.03</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>297</v>
       </c>
       <c r="D192" t="n">
-        <v>2.69</v>
+        <v>2.37</v>
       </c>
       <c r="E192" t="n">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="F192" t="n">
-        <v>1.37</v>
+        <v>0.43</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -10952,13 +10952,13 @@
         <v>298</v>
       </c>
       <c r="D193" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="E193" t="n">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>0.94</v>
+        <v>0.23</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
         <v>0</v>
@@ -11093,13 +11093,13 @@
         <v>302</v>
       </c>
       <c r="D196" t="n">
-        <v>4.53</v>
+        <v>4.09</v>
       </c>
       <c r="E196" t="n">
-        <v>3.46</v>
+        <v>2.5</v>
       </c>
       <c r="F196" t="n">
-        <v>2.21</v>
+        <v>0.78</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -11111,13 +11111,13 @@
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>3.59</v>
+        <v>2.87</v>
       </c>
       <c r="K196" t="n">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="L196" t="n">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
       <c r="M196" t="n">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         <v>303</v>
       </c>
       <c r="D197" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="E197" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="F197" t="n">
-        <v>1.11</v>
+        <v>0.48</v>
       </c>
       <c r="G197" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11158,16 +11158,16 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.59</v>
+        <v>2.08</v>
       </c>
       <c r="K197" t="n">
-        <v>1.38</v>
+        <v>0.66</v>
       </c>
       <c r="L197" t="n">
-        <v>0.45</v>
+        <v>0.07</v>
       </c>
       <c r="M197" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N197" t="n">
         <v>0</v>
@@ -11187,16 +11187,16 @@
         <v>304</v>
       </c>
       <c r="D198" t="n">
-        <v>3.13</v>
+        <v>2.42</v>
       </c>
       <c r="E198" t="n">
-        <v>1.26</v>
+        <v>0.34</v>
       </c>
       <c r="F198" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11205,16 +11205,16 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>3.54</v>
+        <v>1.65</v>
       </c>
       <c r="K198" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N198" t="n">
         <v>0</v>
@@ -11234,13 +11234,13 @@
         <v>305</v>
       </c>
       <c r="D199" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="E199" t="n">
-        <v>2.19</v>
+        <v>1.13</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -11252,16 +11252,16 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>3.88</v>
+        <v>2.67</v>
       </c>
       <c r="K199" t="n">
-        <v>1.67</v>
+        <v>0.44</v>
       </c>
       <c r="L199" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="M199" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N199" t="n">
         <v>0</v>
@@ -11281,16 +11281,16 @@
         <v>306</v>
       </c>
       <c r="D200" t="n">
-        <v>2.41</v>
+        <v>1.87</v>
       </c>
       <c r="E200" t="n">
-        <v>1.13</v>
+        <v>0.41</v>
       </c>
       <c r="F200" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="G200" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>2.28</v>
+        <v>1.39</v>
       </c>
       <c r="K200" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
         <v>0</v>
@@ -11328,10 +11328,10 @@
         <v>307</v>
       </c>
       <c r="D201" t="n">
-        <v>1.85</v>
+        <v>1.24</v>
       </c>
       <c r="E201" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11346,10 +11346,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>2.47</v>
+        <v>1.84</v>
       </c>
       <c r="K201" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>308</v>
       </c>
       <c r="D202" t="n">
-        <v>2.51</v>
+        <v>2.06</v>
       </c>
       <c r="E202" t="n">
-        <v>1.49</v>
+        <v>0.79</v>
       </c>
       <c r="F202" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="G202" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11393,16 +11393,16 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="K202" t="n">
-        <v>1.58</v>
+        <v>0.66</v>
       </c>
       <c r="L202" t="n">
-        <v>0.37</v>
+        <v>0.07</v>
       </c>
       <c r="M202" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
         <v>0</v>
@@ -11422,16 +11422,16 @@
         <v>309</v>
       </c>
       <c r="D203" t="n">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="E203" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="F203" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="G203" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>310</v>
       </c>
       <c r="D204" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="E204" t="n">
-        <v>1.39</v>
+        <v>0.46</v>
       </c>
       <c r="F204" t="n">
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -11516,13 +11516,13 @@
         <v>311</v>
       </c>
       <c r="D205" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="E205" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F205" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -11534,16 +11534,16 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="K205" t="n">
-        <v>1.17</v>
+        <v>0.47</v>
       </c>
       <c r="L205" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
       <c r="M205" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
         <v>0</v>
@@ -11610,13 +11610,13 @@
         <v>313</v>
       </c>
       <c r="D207" t="n">
-        <v>4.22</v>
+        <v>3.78</v>
       </c>
       <c r="E207" t="n">
-        <v>3.24</v>
+        <v>2.32</v>
       </c>
       <c r="F207" t="n">
-        <v>2.12</v>
+        <v>0.9</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -11628,16 +11628,16 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>3.46</v>
+        <v>2.88</v>
       </c>
       <c r="K207" t="n">
-        <v>2.26</v>
+        <v>1.22</v>
       </c>
       <c r="L207" t="n">
-        <v>1.12</v>
+        <v>0.21</v>
       </c>
       <c r="M207" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
         <v>0</v>
@@ -11657,16 +11657,16 @@
         <v>315</v>
       </c>
       <c r="D208" t="n">
-        <v>2.18</v>
+        <v>1.2</v>
       </c>
       <c r="E208" t="n">
-        <v>1.02</v>
+        <v>0.05</v>
       </c>
       <c r="F208" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -11675,16 +11675,16 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.1</v>
+        <v>0.31</v>
       </c>
       <c r="K208" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
         <v>0</v>
@@ -11704,16 +11704,16 @@
         <v>316</v>
       </c>
       <c r="D209" t="n">
-        <v>1.46</v>
+        <v>0.78</v>
       </c>
       <c r="E209" t="n">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="F209" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -11722,16 +11722,16 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.99</v>
+        <v>1.55</v>
       </c>
       <c r="K209" t="n">
-        <v>0.94</v>
+        <v>0.51</v>
       </c>
       <c r="L209" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="M209" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
         <v>0</v>
@@ -11751,34 +11751,34 @@
         <v>317</v>
       </c>
       <c r="D210" t="n">
-        <v>1.12</v>
+        <v>0.74</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="F210" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.12</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.63</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
         <v>0</v>
@@ -11798,16 +11798,16 @@
         <v>318</v>
       </c>
       <c r="D211" t="n">
-        <v>2.85</v>
+        <v>1.6</v>
       </c>
       <c r="E211" t="n">
-        <v>1.72</v>
+        <v>0.1</v>
       </c>
       <c r="F211" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -11816,16 +11816,16 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>5.8</v>
+        <v>3.34</v>
       </c>
       <c r="K211" t="n">
-        <v>3.54</v>
+        <v>0.19</v>
       </c>
       <c r="L211" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N211" t="n">
         <v>0</v>
@@ -11845,16 +11845,16 @@
         <v>319</v>
       </c>
       <c r="D212" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="E212" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="F212" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -11863,16 +11863,16 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.41</v>
+        <v>1.92</v>
       </c>
       <c r="K212" t="n">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="L212" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="M212" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
         <v>0</v>
@@ -11892,16 +11892,16 @@
         <v>320</v>
       </c>
       <c r="D213" t="n">
-        <v>1.93</v>
+        <v>1.27</v>
       </c>
       <c r="E213" t="n">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="F213" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -11910,16 +11910,16 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="K213" t="n">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N213" t="n">
         <v>0</v>
@@ -11939,34 +11939,34 @@
         <v>322</v>
       </c>
       <c r="D214" t="n">
-        <v>4.58</v>
+        <v>3.51</v>
       </c>
       <c r="E214" t="n">
-        <v>3.01</v>
+        <v>0.95</v>
       </c>
       <c r="F214" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="G214" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>4.27</v>
+        <v>3.04</v>
       </c>
       <c r="K214" t="n">
-        <v>2.57</v>
+        <v>0.59</v>
       </c>
       <c r="L214" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N214" t="n">
         <v>0</v>
@@ -11986,16 +11986,16 @@
         <v>323</v>
       </c>
       <c r="D215" t="n">
-        <v>3.86</v>
+        <v>3.45</v>
       </c>
       <c r="E215" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="F215" t="n">
-        <v>1.57</v>
+        <v>0.47</v>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12004,19 +12004,19 @@
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
       <c r="K215" t="n">
-        <v>2.09</v>
+        <v>1.19</v>
       </c>
       <c r="L215" t="n">
-        <v>0.94</v>
+        <v>0.16</v>
       </c>
       <c r="M215" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O215" t="n">
         <v>0</v>
@@ -12051,16 +12051,16 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>0.97</v>
+        <v>0.4</v>
       </c>
       <c r="K216" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N216" t="n">
         <v>0</v>
@@ -12098,16 +12098,16 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>1.2</v>
+        <v>0.64</v>
       </c>
       <c r="K217" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -12127,16 +12127,16 @@
         <v>326</v>
       </c>
       <c r="D218" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="E218" t="n">
-        <v>2.06</v>
+        <v>0.85</v>
       </c>
       <c r="F218" t="n">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="G218" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -12145,16 +12145,16 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="K218" t="n">
-        <v>1.92</v>
+        <v>0.15</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -12174,13 +12174,13 @@
         <v>327</v>
       </c>
       <c r="D219" t="n">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="E219" t="n">
-        <v>0.7</v>
+        <v>0.26</v>
       </c>
       <c r="F219" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
         <v>0</v>
@@ -12221,37 +12221,37 @@
         <v>328</v>
       </c>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>4.26</v>
       </c>
       <c r="E220" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="F220" t="n">
-        <v>2.38</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>4.82</v>
+        <v>3.88</v>
       </c>
       <c r="K220" t="n">
-        <v>3.46</v>
+        <v>1.68</v>
       </c>
       <c r="L220" t="n">
-        <v>1.98</v>
+        <v>0.13</v>
       </c>
       <c r="M220" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
@@ -12268,13 +12268,13 @@
         <v>329</v>
       </c>
       <c r="D221" t="n">
-        <v>5.08</v>
+        <v>4.47</v>
       </c>
       <c r="E221" t="n">
-        <v>4.03</v>
+        <v>2.72</v>
       </c>
       <c r="F221" t="n">
-        <v>2.8</v>
+        <v>0.95</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -12286,16 +12286,16 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>4</v>
+        <v>3.37</v>
       </c>
       <c r="K221" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="L221" t="n">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="M221" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -12315,16 +12315,16 @@
         <v>330</v>
       </c>
       <c r="D222" t="n">
-        <v>3.37</v>
+        <v>2.88</v>
       </c>
       <c r="E222" t="n">
-        <v>2.16</v>
+        <v>1.26</v>
       </c>
       <c r="F222" t="n">
-        <v>0.94</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -12333,16 +12333,16 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>2.91</v>
+        <v>2.25</v>
       </c>
       <c r="K222" t="n">
-        <v>1.51</v>
+        <v>0.69</v>
       </c>
       <c r="L222" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="M222" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
         <v>0</v>
@@ -12362,16 +12362,16 @@
         <v>331</v>
       </c>
       <c r="D223" t="n">
-        <v>4.44</v>
+        <v>3.62</v>
       </c>
       <c r="E223" t="n">
-        <v>3.06</v>
+        <v>1.4</v>
       </c>
       <c r="F223" t="n">
-        <v>1.51</v>
+        <v>0.09</v>
       </c>
       <c r="G223" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -12380,19 +12380,19 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>4.8</v>
+        <v>3.88</v>
       </c>
       <c r="K223" t="n">
-        <v>3.34</v>
+        <v>1.6</v>
       </c>
       <c r="L223" t="n">
-        <v>1.74</v>
+        <v>0.06</v>
       </c>
       <c r="M223" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -12409,13 +12409,13 @@
         <v>333</v>
       </c>
       <c r="D224" t="n">
-        <v>2.55</v>
+        <v>2.14</v>
       </c>
       <c r="E224" t="n">
-        <v>1.39</v>
+        <v>0.63</v>
       </c>
       <c r="F224" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>334</v>
       </c>
       <c r="D225" t="n">
-        <v>2.53</v>
+        <v>2</v>
       </c>
       <c r="E225" t="n">
-        <v>1.44</v>
+        <v>0.53</v>
       </c>
       <c r="F225" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>1.02</v>
+        <v>0.52</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -12503,16 +12503,16 @@
         <v>335</v>
       </c>
       <c r="D226" t="n">
-        <v>4.07</v>
+        <v>2.89</v>
       </c>
       <c r="E226" t="n">
-        <v>2.71</v>
+        <v>0.54</v>
       </c>
       <c r="F226" t="n">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="G226" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -12521,16 +12521,16 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>8.17</v>
+        <v>4.62</v>
       </c>
       <c r="K226" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N226" t="n">
         <v>0</v>
@@ -12550,13 +12550,13 @@
         <v>336</v>
       </c>
       <c r="D227" t="n">
-        <v>4.96</v>
+        <v>3.57</v>
       </c>
       <c r="E227" t="n">
-        <v>3.54</v>
+        <v>0.91</v>
       </c>
       <c r="F227" t="n">
-        <v>1.89</v>
+        <v>0.07</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -12597,16 +12597,16 @@
         <v>337</v>
       </c>
       <c r="D228" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="E228" t="n">
-        <v>2.43</v>
+        <v>1.15</v>
       </c>
       <c r="F228" t="n">
-        <v>1.47</v>
+        <v>0.14</v>
       </c>
       <c r="G228" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -12644,13 +12644,13 @@
         <v>338</v>
       </c>
       <c r="D229" t="n">
-        <v>2.96</v>
+        <v>2.07</v>
       </c>
       <c r="E229" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -12691,13 +12691,13 @@
         <v>339</v>
       </c>
       <c r="D230" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="E230" t="n">
-        <v>1.39</v>
+        <v>0.35</v>
       </c>
       <c r="F230" t="n">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -12709,16 +12709,16 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>2.99</v>
+        <v>1.9</v>
       </c>
       <c r="K230" t="n">
-        <v>1.13</v>
+        <v>0.38</v>
       </c>
       <c r="L230" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -12738,13 +12738,13 @@
         <v>340</v>
       </c>
       <c r="D231" t="n">
-        <v>2.81</v>
+        <v>2.3</v>
       </c>
       <c r="E231" t="n">
-        <v>2.04</v>
+        <v>0.99</v>
       </c>
       <c r="F231" t="n">
-        <v>1.18</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -12785,16 +12785,16 @@
         <v>341</v>
       </c>
       <c r="D232" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="E232" t="n">
-        <v>1.66</v>
+        <v>0.62</v>
       </c>
       <c r="F232" t="n">
-        <v>0.72</v>
+        <v>0.02</v>
       </c>
       <c r="G232" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -12832,13 +12832,13 @@
         <v>342</v>
       </c>
       <c r="D233" t="n">
-        <v>3.18</v>
+        <v>2.33</v>
       </c>
       <c r="E233" t="n">
-        <v>2.12</v>
+        <v>0.63</v>
       </c>
       <c r="F233" t="n">
-        <v>0.96</v>
+        <v>0.08</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -12850,13 +12850,13 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>10.67</v>
+        <v>6.09</v>
       </c>
       <c r="K233" t="n">
-        <v>7.22</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -12879,13 +12879,13 @@
         <v>343</v>
       </c>
       <c r="D234" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9</v>
+        <v>0.19</v>
       </c>
       <c r="F234" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -12926,13 +12926,13 @@
         <v>345</v>
       </c>
       <c r="D235" t="n">
-        <v>3.07</v>
+        <v>2.3</v>
       </c>
       <c r="E235" t="n">
-        <v>2.09</v>
+        <v>0.5</v>
       </c>
       <c r="F235" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -12973,13 +12973,13 @@
         <v>346</v>
       </c>
       <c r="D236" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="E236" t="n">
-        <v>2.5</v>
+        <v>0.94</v>
       </c>
       <c r="F236" t="n">
-        <v>1.46</v>
+        <v>0.06</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -13067,13 +13067,13 @@
         <v>348</v>
       </c>
       <c r="D238" t="n">
-        <v>3.12</v>
+        <v>2.6</v>
       </c>
       <c r="E238" t="n">
-        <v>2.44</v>
+        <v>1.32</v>
       </c>
       <c r="F238" t="n">
-        <v>1.65</v>
+        <v>0.29</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -13114,13 +13114,13 @@
         <v>349</v>
       </c>
       <c r="D239" t="n">
-        <v>2.74</v>
+        <v>2.15</v>
       </c>
       <c r="E239" t="n">
-        <v>1.85</v>
+        <v>0.65</v>
       </c>
       <c r="F239" t="n">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -13161,13 +13161,13 @@
         <v>350</v>
       </c>
       <c r="D240" t="n">
-        <v>3.31</v>
+        <v>2.79</v>
       </c>
       <c r="E240" t="n">
-        <v>2.63</v>
+        <v>1.51</v>
       </c>
       <c r="F240" t="n">
-        <v>1.83</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -13208,13 +13208,13 @@
         <v>351</v>
       </c>
       <c r="D241" t="n">
-        <v>3.55</v>
+        <v>3.06</v>
       </c>
       <c r="E241" t="n">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
       <c r="F241" t="n">
-        <v>1.87</v>
+        <v>0.36</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
